--- a/Assets/Designs/General/Character2D.xlsx
+++ b/Assets/Designs/General/Character2D.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -27,37 +27,40 @@
     <t>PrefabName</t>
   </si>
   <si>
+    <t>InfoText</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Test Character A</t>
   </si>
   <si>
     <t>Player2D_1</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Test Character B</t>
   </si>
   <si>
     <t>Player2D_2</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Test Character C</t>
   </si>
   <si>
     <t>Player2D_3</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Test Character D</t>
   </si>
   <si>
     <t>Player2D_4</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Test Character E</t>
   </si>
   <si>
     <t>Player2D_5</t>
@@ -1003,20 +1006,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1026,71 +1030,92 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Character2D.xlsx
+++ b/Assets/Designs/General/Character2D.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +43,9 @@
     <t>InfoText</t>
   </si>
   <si>
+    <t>IconPath</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -42,34 +58,64 @@
     <t>Player2D_1</t>
   </si>
   <si>
+    <t>Text_Gravity</t>
+  </si>
+  <si>
+    <t>Icon_Gravity</t>
+  </si>
+  <si>
     <t>Test Character B</t>
   </si>
   <si>
     <t>Player2D_2</t>
   </si>
   <si>
+    <t>Text_Leaf</t>
+  </si>
+  <si>
+    <t>Icon_Leaf</t>
+  </si>
+  <si>
     <t>Test Character C</t>
   </si>
   <si>
     <t>Player2D_3</t>
   </si>
   <si>
+    <t>Text_Laser</t>
+  </si>
+  <si>
+    <t>Icon_Laser</t>
+  </si>
+  <si>
     <t>Test Character D</t>
   </si>
   <si>
     <t>Player2D_4</t>
   </si>
   <si>
+    <t>Text_Missile</t>
+  </si>
+  <si>
+    <t>Icon_Missile</t>
+  </si>
+  <si>
     <t>Test Character E</t>
   </si>
   <si>
     <t>Player2D_5</t>
+  </si>
+  <si>
+    <t>Text_VT</t>
+  </si>
+  <si>
+    <t>Icon_VT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1006,21 +1052,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="35.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1033,89 +1080,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Character2D.xlsx
+++ b/Assets/Designs/General/Character2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -46,13 +46,16 @@
     <t>IconPath</t>
   </si>
   <si>
+    <t>AvatarPath</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>Test Character A</t>
+    <t>Darlan</t>
   </si>
   <si>
     <t>Player2D_1</t>
@@ -64,7 +67,10 @@
     <t>Icon_Gravity</t>
   </si>
   <si>
-    <t>Test Character B</t>
+    <t>Icon_P1_2D</t>
+  </si>
+  <si>
+    <t>Lanuarius</t>
   </si>
   <si>
     <t>Player2D_2</t>
@@ -76,7 +82,10 @@
     <t>Icon_Leaf</t>
   </si>
   <si>
-    <t>Test Character C</t>
+    <t>Icon_P2_2D</t>
+  </si>
+  <si>
+    <t>Francois</t>
   </si>
   <si>
     <t>Player2D_3</t>
@@ -88,7 +97,10 @@
     <t>Icon_Laser</t>
   </si>
   <si>
-    <t>Test Character D</t>
+    <t>Icon_P3_2D</t>
+  </si>
+  <si>
+    <t>Chesteria</t>
   </si>
   <si>
     <t>Player2D_4</t>
@@ -100,7 +112,10 @@
     <t>Icon_Missile</t>
   </si>
   <si>
-    <t>Test Character E</t>
+    <t>Icon_P4_2D</t>
+  </si>
+  <si>
+    <t>You</t>
   </si>
   <si>
     <t>Player2D_5</t>
@@ -110,6 +125,9 @@
   </si>
   <si>
     <t>Icon_VT</t>
+  </si>
+  <si>
+    <t>Icon_C1_2D</t>
   </si>
 </sst>
 </file>
@@ -1052,22 +1070,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="21.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="35.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1083,107 +1102,128 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
